--- a/testData/insurance.xlsx
+++ b/testData/insurance.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="31">
   <si>
     <t>Raja</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>₹2,181</t>
+  </si>
+  <si>
+    <t>₹2,750</t>
+  </si>
+  <si>
+    <t>₹2,156</t>
   </si>
 </sst>
 </file>
